--- a/record/eight_weights.xlsx
+++ b/record/eight_weights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>wg_q1</t>
   </si>
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -61,14 +61,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,28 +94,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>8861726.5334606171</v>
+        <v>22659305.238004684</v>
       </c>
       <c r="B2">
         <v>0.033333333333333333</v>
@@ -120,7 +124,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>-3862971.4682855606</v>
+        <v>16181818.673911095</v>
       </c>
       <c r="E2">
         <v>0.033333333333333333</v>
@@ -131,7 +135,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>-10671954.12204361</v>
+        <v>-19131907.465432167</v>
       </c>
       <c r="B3">
         <v>0.066666666666666666</v>
@@ -140,7 +144,7 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>-1882320.9399662018</v>
+        <v>-14171155.51892662</v>
       </c>
       <c r="E3">
         <v>0.066666666666666666</v>
@@ -151,7 +155,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3728868.1452012062</v>
+        <v>1810968.6334037781</v>
       </c>
       <c r="B4">
         <v>0.10000000000000001</v>
@@ -160,7 +164,7 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>4551113.6513671875</v>
+        <v>1763530.9539904594</v>
       </c>
       <c r="E4">
         <v>0.10000000000000001</v>
@@ -171,7 +175,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4648184.2656445503</v>
+        <v>11656542.013663292</v>
       </c>
       <c r="B5">
         <v>0.13333333333333333</v>
@@ -180,7 +184,7 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>-1832252.3498711586</v>
+        <v>8349086.1239318848</v>
       </c>
       <c r="E5">
         <v>0.13333333333333333</v>
@@ -191,7 +195,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>-9708971.3837909698</v>
+        <v>-16779475.085829735</v>
       </c>
       <c r="B6">
         <v>0.16666666666666666</v>
@@ -200,7 +204,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>-2211002.3951339722</v>
+        <v>-12481320.129317284</v>
       </c>
       <c r="E6">
         <v>0.16666666666666666</v>
@@ -211,7 +215,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>11052046.585395813</v>
+        <v>16139119.419917107</v>
       </c>
       <c r="B7">
         <v>0.20000000000000001</v>
@@ -220,7 +224,7 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>4876675.5400352478</v>
+        <v>12264965.312812805</v>
       </c>
       <c r="E7">
         <v>0.20000000000000001</v>
@@ -231,7 +235,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>-10092374.909622192</v>
+        <v>-13101371.673618317</v>
       </c>
       <c r="B8">
         <v>0.23333333333333334</v>
@@ -240,7 +244,7 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>-5755759.1255502701</v>
+        <v>-10125117.513101578</v>
       </c>
       <c r="E8">
         <v>0.23333333333333334</v>
@@ -251,7 +255,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8220193.5689334869</v>
+        <v>9728001.1299743652</v>
       </c>
       <c r="B9">
         <v>0.26666666666666666</v>
@@ -260,7 +264,7 @@
         <v>100</v>
       </c>
       <c r="D9">
-        <v>5437911.2148008347</v>
+        <v>7626710.8742589951</v>
       </c>
       <c r="E9">
         <v>0.26666666666666666</v>
@@ -271,7 +275,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>-6271050.8375282288</v>
+        <v>-6875077.4939756393</v>
       </c>
       <c r="B10">
         <v>0.29999999999999999</v>
@@ -280,7 +284,7 @@
         <v>100</v>
       </c>
       <c r="D10">
-        <v>-4582541.0834102631</v>
+        <v>-5458746.8271303177</v>
       </c>
       <c r="E10">
         <v>0.29999999999999999</v>
@@ -291,7 +295,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>4605901.8535561562</v>
+        <v>4732511.2691783905</v>
       </c>
       <c r="B11">
         <v>0.33333333333333331</v>
@@ -300,7 +304,7 @@
         <v>100</v>
       </c>
       <c r="D11">
-        <v>3617489.5850939751</v>
+        <v>3800469.733628273</v>
       </c>
       <c r="E11">
         <v>0.33333333333333331</v>
@@ -311,7 +315,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>-3312376.5738925934</v>
+        <v>-3218609.3676314354</v>
       </c>
       <c r="B12">
         <v>0.36666666666666664</v>
@@ -320,7 +324,7 @@
         <v>100</v>
       </c>
       <c r="D12">
-        <v>-2748212.4181847572</v>
+        <v>-2611313.6563668251</v>
       </c>
       <c r="E12">
         <v>0.36666666666666664</v>
@@ -331,7 +335,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>2357663.1518166065</v>
+        <v>2182314.2971241474</v>
       </c>
       <c r="B13">
         <v>0.40000000000000002</v>
@@ -340,7 +344,7 @@
         <v>100</v>
       </c>
       <c r="D13">
-        <v>2042248.8162589073</v>
+        <v>1787035.3265888691</v>
       </c>
       <c r="E13">
         <v>0.40000000000000002</v>
@@ -351,7 +355,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>-1672289.4348890781</v>
+        <v>-1483475.1503257751</v>
       </c>
       <c r="B14">
         <v>0.43333333333333335</v>
@@ -360,7 +364,7 @@
         <v>100</v>
       </c>
       <c r="D14">
-        <v>-1499655.812599659</v>
+        <v>-1225025.4265384674</v>
       </c>
       <c r="E14">
         <v>0.43333333333333335</v>
@@ -371,7 +375,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>1186853.9985579252</v>
+        <v>1014218.433386445</v>
       </c>
       <c r="B15">
         <v>0.46666666666666667</v>
@@ -380,7 +384,7 @@
         <v>100</v>
       </c>
       <c r="D15">
-        <v>1094940.3539537191</v>
+        <v>843915.01275253296</v>
       </c>
       <c r="E15">
         <v>0.46666666666666667</v>
@@ -391,7 +395,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>-844551.01203513145</v>
+        <v>-698301.95118200779</v>
       </c>
       <c r="B16">
         <v>0.5</v>
@@ -400,7 +404,7 @@
         <v>100</v>
       </c>
       <c r="D16">
-        <v>-797690.54741370678</v>
+        <v>-585068.42666780949</v>
       </c>
       <c r="E16">
         <v>0.5</v>
@@ -411,7 +415,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>602877.36194944382</v>
+        <v>484185.04970151186</v>
       </c>
       <c r="B17">
         <v>0.53333333333333333</v>
@@ -420,7 +424,7 @@
         <v>100</v>
       </c>
       <c r="D17">
-        <v>580746.70882254839</v>
+        <v>408206.16515731812</v>
       </c>
       <c r="E17">
         <v>0.53333333333333333</v>
@@ -431,7 +435,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>-431346.01843416691</v>
+        <v>-337637.87671142817</v>
       </c>
       <c r="B18">
         <v>0.56666666666666665</v>
@@ -440,7 +444,7 @@
         <v>100</v>
       </c>
       <c r="D18">
-        <v>-422469.04582750797</v>
+        <v>-286257.83616697788</v>
       </c>
       <c r="E18">
         <v>0.56666666666666665</v>
@@ -451,7 +455,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>308734.9074395299</v>
+        <v>236247.66818723083</v>
       </c>
       <c r="B19">
         <v>0.59999999999999998</v>
@@ -460,7 +464,7 @@
         <v>100</v>
       </c>
       <c r="D19">
-        <v>306679.59206783772</v>
+        <v>201320.40532788634</v>
       </c>
       <c r="E19">
         <v>0.59999999999999998</v>
@@ -471,7 +475,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>-220383.36099053919</v>
+        <v>-165313.43962964416</v>
       </c>
       <c r="B20">
         <v>0.6333333333333333</v>
@@ -480,7 +484,7 @@
         <v>100</v>
       </c>
       <c r="D20">
-        <v>-221548.62000642717</v>
+        <v>-141508.78895361722</v>
       </c>
       <c r="E20">
         <v>0.6333333333333333</v>
@@ -491,7 +495,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>156224.0600900948</v>
+        <v>115155.59563808143</v>
       </c>
       <c r="B21">
         <v>0.66666666666666663</v>
@@ -500,7 +504,7 @@
         <v>100</v>
       </c>
       <c r="D21">
-        <v>158675.36087059975</v>
+        <v>98987.655303761363</v>
       </c>
       <c r="E21">
         <v>0.66666666666666663</v>
@@ -511,7 +515,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>-109389.69551546872</v>
+        <v>-79418.804417930543</v>
       </c>
       <c r="B22">
         <v>0.69999999999999996</v>
@@ -520,7 +524,7 @@
         <v>100</v>
       </c>
       <c r="D22">
-        <v>-112071.69324856997</v>
+        <v>-68514.12688460201</v>
       </c>
       <c r="E22">
         <v>0.69999999999999996</v>
@@ -531,7 +535,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>75106.329325862229</v>
+        <v>53820.819783218205</v>
       </c>
       <c r="B23">
         <v>0.73333333333333328</v>
@@ -540,7 +544,7 @@
         <v>100</v>
       </c>
       <c r="D23">
-        <v>77527.7687677145</v>
+        <v>46593.655391730368</v>
       </c>
       <c r="E23">
         <v>0.73333333333333328</v>
@@ -551,7 +555,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>-50112.029631536454</v>
+        <v>-35517.183578345925</v>
       </c>
       <c r="B24">
         <v>0.76666666666666661</v>
@@ -560,7 +564,7 @@
         <v>100</v>
       </c>
       <c r="D24">
-        <v>-52052.956676635891</v>
+        <v>-30842.771234773099</v>
       </c>
       <c r="E24">
         <v>0.76666666666666661</v>
@@ -571,7 +575,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>32095.660143444315</v>
+        <v>22547.65054284595</v>
       </c>
       <c r="B25">
         <v>0.80000000000000004</v>
@@ -580,7 +584,7 @@
         <v>100</v>
       </c>
       <c r="D25">
-        <v>33516.456976994872</v>
+        <v>19640.899157185107</v>
       </c>
       <c r="E25">
         <v>0.80000000000000004</v>
@@ -591,7 +595,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>-19399.198159823194</v>
+        <v>-13537.906325692311</v>
       </c>
       <c r="B26">
         <v>0.83333333333333337</v>
@@ -600,7 +604,7 @@
         <v>100</v>
       </c>
       <c r="D26">
-        <v>-20354.362514562905</v>
+        <v>-11836.61628472805</v>
       </c>
       <c r="E26">
         <v>0.83333333333333337</v>
@@ -611,7 +615,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>10818.32811335614</v>
+        <v>7522.6298946528696</v>
       </c>
       <c r="B27">
         <v>0.8666666666666667</v>
@@ -620,7 +624,7 @@
         <v>100</v>
       </c>
       <c r="D27">
-        <v>11390.909690072294</v>
+        <v>6601.5942551037297</v>
       </c>
       <c r="E27">
         <v>0.8666666666666667</v>
@@ -631,7 +635,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>-5351.1440385109745</v>
+        <v>-3722.4059449485503</v>
       </c>
       <c r="B28">
         <v>0.90000000000000002</v>
@@ -640,7 +644,7 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>-5664.9417114409152</v>
+        <v>-3298.0802470406052</v>
       </c>
       <c r="E28">
         <v>0.90000000000000002</v>
@@ -651,7 +655,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>2213.4214539929526</v>
+        <v>1552.1005406447221</v>
       </c>
       <c r="B29">
         <v>0.93333333333333335</v>
@@ -660,7 +664,7 @@
         <v>100</v>
       </c>
       <c r="D29">
-        <v>2352.9635768553708</v>
+        <v>1391.9480213770876</v>
       </c>
       <c r="E29">
         <v>0.93333333333333335</v>
@@ -671,7 +675,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>-662.45811906878953</v>
+        <v>-476.90610547069809</v>
       </c>
       <c r="B30">
         <v>0.96666666666666667</v>
@@ -680,7 +684,7 @@
         <v>100</v>
       </c>
       <c r="D30">
-        <v>-724.98897917784052</v>
+        <v>-455.34974505615537</v>
       </c>
       <c r="E30">
         <v>0.96666666666666667</v>
@@ -691,7 +695,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>75.97686403323678</v>
+        <v>60.971049973453773</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -700,7 +704,7 @@
         <v>100</v>
       </c>
       <c r="D31">
-        <v>94.16169191872541</v>
+        <v>72.35417370491632</v>
       </c>
       <c r="E31">
         <v>1</v>
